--- a/Project3763_W. J. Baker(2009).xlsx
+++ b/Project3763_W. J. Baker(2009).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89060EED-3919-5C4D-A039-1B6528BFEA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9786AE95-D3F8-49A2-A6DF-75206B02792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
+    <workbookView xWindow="16455" yWindow="780" windowWidth="15945" windowHeight="18375" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3763" sheetId="1" r:id="rId1"/>
@@ -460,55 +460,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>42331</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>56446</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>776110</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>42335</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88142000-A996-B5C1-256B-F2F84890035F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10526887" y="338668"/>
-          <a:ext cx="10724445" cy="6702778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,13 +785,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -862,7 +813,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -873,7 +824,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -884,7 +835,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -895,7 +846,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -906,7 +857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -917,7 +868,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -925,7 +876,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -936,7 +887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -944,7 +895,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -955,7 +906,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -966,7 +917,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -977,7 +928,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -988,7 +939,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -996,7 +947,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1007,7 +958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +969,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +980,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1040,7 +991,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1051,7 +1002,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1013,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1084,7 +1035,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1046,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1106,7 +1057,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1128,7 +1079,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1139,7 +1090,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1150,7 +1101,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1161,7 +1112,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1123,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1183,7 +1134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1194,7 +1145,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1205,7 +1156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1227,7 +1178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1238,7 +1189,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1249,7 +1200,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1260,7 +1211,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1271,7 +1222,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1282,7 +1233,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1293,7 +1244,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1304,7 +1255,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1315,7 +1266,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1326,7 +1277,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1337,7 +1288,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1348,7 +1299,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1359,7 +1310,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1370,7 +1321,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1381,7 +1332,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1392,7 +1343,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1403,7 +1354,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1414,7 +1365,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1425,7 +1376,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1436,7 +1387,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1447,7 +1398,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1458,7 +1409,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1469,7 +1420,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1480,7 +1431,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1491,7 +1442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1502,7 +1453,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1513,7 +1464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1524,7 +1475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1535,7 +1486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1546,7 +1497,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1557,7 +1508,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1568,7 +1519,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1579,7 +1530,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1590,7 +1541,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1601,7 +1552,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1612,7 +1563,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1623,7 +1574,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1631,7 +1582,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1642,7 +1593,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1653,7 +1604,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1664,7 +1615,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1675,7 +1626,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1686,7 +1637,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1697,7 +1648,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1708,7 +1659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1719,7 +1670,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1730,7 +1681,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1741,7 +1692,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1752,7 +1703,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -1763,7 +1714,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -1774,7 +1725,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -1785,7 +1736,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -1796,7 +1747,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -1807,7 +1758,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -1818,7 +1769,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -1829,7 +1780,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -1840,7 +1791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -1851,7 +1802,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -1862,7 +1813,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -1873,7 +1824,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1884,7 +1835,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -1895,7 +1846,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -1906,7 +1857,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -1917,7 +1868,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -1928,7 +1879,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -1939,7 +1890,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -1950,7 +1901,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -1961,7 +1912,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -1972,7 +1923,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -1983,7 +1934,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -1997,6 +1948,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>